--- a/xlsx/美国重建时期_intext.xlsx
+++ b/xlsx/美国重建时期_intext.xlsx
@@ -15,509 +15,509 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="444">
   <si>
     <t>美国重建时期</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%87%8D%E5%BB%BA%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国历史</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2_(1865%E5%B9%B4%EF%BC%8D1918%E5%B9%B4)</t>
+  </si>
+  <si>
+    <t>美国历史 (1865年－1918年)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E8%81%AF%E7%9B%9F%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美利坚联盟国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>奴隶制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>南北战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>黑人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
+  </si>
+  <si>
+    <t>亚伯拉罕·林肯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E8%A9%B9%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>安德鲁·詹森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E5%A5%B4%E9%9A%B8%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>解放奴隶宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%91%E8%B4%96%E8%80%85</t>
+  </si>
+  <si>
+    <t>救赎者</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>共和主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十三修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十四修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D</t>
+  </si>
+  <si>
+    <t>美国陆军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89K%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>三K党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%91%9F%E7%A6%8F%E5%BE%B7%C2%B7%E4%BC%AF%E6%9F%A5%E5%BE%B7%C2%B7%E6%B5%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>拉瑟福德·伯查德·海斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国宪法第十五修正案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E5%B0%8D%E5%BF%A0%E8%AA%A0%E8%AA%93%E8%A9%9E</t>
+  </si>
+  <si>
+    <t>绝对忠诚誓词</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%A2%8B%E5%90%A6%E6%B1%BA</t>
+  </si>
+  <si>
+    <t>口袋否决</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>宾州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密西西比州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>麻州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E6%8A%95%E7%A5%A8%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>妇女投票权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA%E5%84%AA%E8%B6%8A%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>白人优越主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
+  </si>
+  <si>
+    <t>种族隔离</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%C2%B7%E6%88%B4%E7%B6%AD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>杰佛逊·戴维斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>乔治亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%B3%BC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>哈泼斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA%E6%B3%95%E4%BB%A4</t>
+  </si>
+  <si>
+    <t>黑人法令</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南卡罗莱纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>伊利诺州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91</t>
+  </si>
+  <si>
+    <t>公民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>公民权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%BA%AB%E4%BF%9D%E8%AD%B7%E4%BB%A4</t>
+  </si>
+  <si>
+    <t>人身保护令</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>田纳西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿肯色州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛罗里达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北卡罗莱纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E8%A5%BF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>路易西安那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿拉巴马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>维吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>得克萨斯州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/John_Schofield</t>
+  </si>
+  <si>
+    <t>en-John Schofield</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B3%A2%E6%99%AE</t>
+  </si>
+  <si>
+    <t>约翰·波普</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%C2%B7%E8%B0%A2%E9%87%8C%E7%99%BB</t>
+  </si>
+  <si>
+    <t>菲利普·谢里登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E8%8F%B2%E7%88%BE%E5%BE%B7%C2%B7%E6%BC%A2%E8%80%83%E5%85%8B</t>
+  </si>
+  <si>
+    <t>温菲尔德·汉考克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%92%E5%9A%B4</t>
+  </si>
+  <si>
+    <t>戒严</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%A5%A7%E8%89%AF</t>
+  </si>
+  <si>
+    <t>纽奥良</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%92%99%C2%B7%E8%94%A1%E6%96%AF</t>
+  </si>
+  <si>
+    <t>萨蒙·蔡斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E7%91%9E%E6%96%AF%C2%B7%E8%91%9B%E9%9B%B7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>荷瑞斯·葛雷利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>深南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%85%8B%C2%B7%E8%8F%AF%E7%9B%9B%E9%A0%93</t>
+  </si>
+  <si>
+    <t>布克·华盛顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%A7%86%C2%B7%E5%85%8B%E5%8B%9E%E6%B3%95</t>
+  </si>
+  <si>
+    <t>吉姆·克劳法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%90%8A%E8%A5%BF%E8%A8%B4%E5%BC%97%E6%A0%BC%E6%A3%AE%E6%A1%88</t>
+  </si>
+  <si>
+    <t>普莱西诉弗格森案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9A%94%E9%9B%A2%E4%BD%86%E5%B9%B3%E7%AD%89</t>
+  </si>
+  <si>
+    <t>隔离但平等</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%80%8B%E5%9C%8B%E5%AE%B6%E7%9A%84%E8%AA%95%E7%94%9F</t>
+  </si>
+  <si>
+    <t>一个国家的诞生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>哥伦比亚大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>非裔美国人民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
+  </si>
+  <si>
+    <t>纽约市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%97%E5%B1%80%E5%91%BD%E5%AE%9A%E8%AB%96</t>
+  </si>
+  <si>
+    <t>败局命定论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Walter_Lynwood_Fleming</t>
+  </si>
+  <si>
+    <t>en-Walter Lynwood Fleming</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/W.E.B._DuBois</t>
+  </si>
+  <si>
+    <t>W.E.B. DuBois</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/David_Levering_Lewis</t>
+  </si>
+  <si>
+    <t>en-David Levering Lewis</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dunning_School</t>
+  </si>
+  <si>
+    <t>en-Dunning School</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/William_Archibald_Dunning</t>
+  </si>
+  <si>
+    <t>en-William Archibald Dunning</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Eric_Foner</t>
+  </si>
+  <si>
+    <t>en-Eric Foner</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/John_Hope_Franklin</t>
+  </si>
+  <si>
+    <t>en-John Hope Franklin</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Simkins,_Francis_Butler</t>
+  </si>
+  <si>
+    <t>en-Simkins, Francis Butler</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
+  </si>
+  <si>
+    <t>维基教科书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>Template talk-美国索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国历史年表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>前哥伦布时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>美国领土变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美國歷史</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国重建时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2_(1865%E5%B9%B4%EF%BC%8D1918%E5%B9%B4)</t>
-  </si>
-  <si>
-    <t>美国历史 (1865年－1918年)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E8%81%AF%E7%9B%9F%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美利堅聯盟國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>奴隸制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>南北戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>黑人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
-  </si>
-  <si>
-    <t>亞伯拉罕·林肯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E8%A9%B9%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>安德魯·詹森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E5%A5%B4%E9%9A%B8%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>解放奴隸宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>共和黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%91%E8%B4%96%E8%80%85</t>
-  </si>
-  <si>
-    <t>救贖者</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>共和主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E5%8D%81%E4%B8%89%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国宪法第十三修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E5%9B%9B%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第十四修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D</t>
-  </si>
-  <si>
-    <t>美國陸軍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89K%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>三K黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%91%9F%E7%A6%8F%E5%BE%B7%C2%B7%E4%BC%AF%E6%9F%A5%E5%BE%B7%C2%B7%E6%B5%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>拉瑟福德·伯查德·海斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%8D%81%E4%BA%94%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美國憲法第十五修正案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E5%B0%8D%E5%BF%A0%E8%AA%A0%E8%AA%93%E8%A9%9E</t>
-  </si>
-  <si>
-    <t>絕對忠誠誓詞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%A2%8B%E5%90%A6%E6%B1%BA</t>
-  </si>
-  <si>
-    <t>口袋否決</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>賓州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密西西比州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>麻州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E5%A5%B3%E6%8A%95%E7%A5%A8%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>婦女投票權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA%E5%84%AA%E8%B6%8A%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>白人優越主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
-  </si>
-  <si>
-    <t>種族隔離</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%C2%B7%E6%88%B4%E7%B6%AD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>傑佛遜·戴維斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%B3%BC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>哈泼斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA%E6%B3%95%E4%BB%A4</t>
-  </si>
-  <si>
-    <t>黑人法令</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南卡羅萊納州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>伊利諾州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91</t>
-  </si>
-  <si>
-    <t>公民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>公民權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%BA%AB%E4%BF%9D%E8%AD%B7%E4%BB%A4</t>
-  </si>
-  <si>
-    <t>人身保護令</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>田納西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿肯色州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛羅里達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北卡羅萊納州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E8%A5%BF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>路易西安那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿拉巴馬州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>維吉尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>得克萨斯州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/John_Schofield</t>
-  </si>
-  <si>
-    <t>en-John Schofield</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B3%A2%E6%99%AE</t>
-  </si>
-  <si>
-    <t>約翰·波普</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%C2%B7%E8%B0%A2%E9%87%8C%E7%99%BB</t>
-  </si>
-  <si>
-    <t>菲利普·谢里登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E8%8F%B2%E7%88%BE%E5%BE%B7%C2%B7%E6%BC%A2%E8%80%83%E5%85%8B</t>
-  </si>
-  <si>
-    <t>溫菲爾德·漢考克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%92%E5%9A%B4</t>
-  </si>
-  <si>
-    <t>戒嚴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%A5%A7%E8%89%AF</t>
-  </si>
-  <si>
-    <t>紐奧良</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%92%99%C2%B7%E8%94%A1%E6%96%AF</t>
-  </si>
-  <si>
-    <t>萨蒙·蔡斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E7%91%9E%E6%96%AF%C2%B7%E8%91%9B%E9%9B%B7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>荷瑞斯·葛雷利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>深南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%85%8B%C2%B7%E8%8F%AF%E7%9B%9B%E9%A0%93</t>
-  </si>
-  <si>
-    <t>布克·華盛頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%A7%86%C2%B7%E5%85%8B%E5%8B%9E%E6%B3%95</t>
-  </si>
-  <si>
-    <t>吉姆·克勞法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%90%8A%E8%A5%BF%E8%A8%B4%E5%BC%97%E6%A0%BC%E6%A3%AE%E6%A1%88</t>
-  </si>
-  <si>
-    <t>普萊西訴弗格森案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%94%E9%9B%A2%E4%BD%86%E5%B9%B3%E7%AD%89</t>
-  </si>
-  <si>
-    <t>隔離但平等</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%80%8B%E5%9C%8B%E5%AE%B6%E7%9A%84%E8%AA%95%E7%94%9F</t>
-  </si>
-  <si>
-    <t>一個國家的誕生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>哥倫比亞大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>非裔美國人民權運動</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
-  </si>
-  <si>
-    <t>紐約市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%97%E5%B1%80%E5%91%BD%E5%AE%9A%E8%AB%96</t>
-  </si>
-  <si>
-    <t>敗局命定論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德克薩斯州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Walter_Lynwood_Fleming</t>
-  </si>
-  <si>
-    <t>en-Walter Lynwood Fleming</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/W.E.B._DuBois</t>
-  </si>
-  <si>
-    <t>W.E.B. DuBois</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/David_Levering_Lewis</t>
-  </si>
-  <si>
-    <t>en-David Levering Lewis</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Dunning_School</t>
-  </si>
-  <si>
-    <t>en-Dunning School</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/William_Archibald_Dunning</t>
-  </si>
-  <si>
-    <t>en-William Archibald Dunning</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Eric_Foner</t>
-  </si>
-  <si>
-    <t>en-Eric Foner</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/John_Hope_Franklin</t>
-  </si>
-  <si>
-    <t>en-John Hope Franklin</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Simkins,_Francis_Butler</t>
-  </si>
-  <si>
-    <t>en-Simkins, Francis Butler</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
-  </si>
-  <si>
-    <t>維基教科書</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>Template talk-美国索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国历史年表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国独立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>美國領土變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>美国内战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
   </si>
   <si>
@@ -539,9 +539,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
   </si>
   <si>
-    <t>非裔美国人民权运动</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -695,15 +692,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
@@ -737,13 +731,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -755,13 +749,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -785,9 +779,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
   </si>
   <si>
-    <t>美国陆军</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
   </si>
   <si>
@@ -809,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -821,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -845,9 +836,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
   </si>
   <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
   </si>
   <si>
@@ -857,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -869,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -905,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -917,13 +905,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -935,13 +923,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -953,13 +941,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -1007,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -1019,13 +1007,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -1037,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -1049,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -1061,13 +1049,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -1091,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -1163,15 +1151,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1181,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1235,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1271,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1289,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1325,19 +1310,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1349,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -1362,15 +1347,6 @@
   </si>
   <si>
     <t>美国种族主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%87%8D%E5%BB%BA%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I233"/>
+  <dimension ref="A1:I232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4090,7 +4066,7 @@
         <v>151</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="G82" t="n">
         <v>5</v>
@@ -4116,10 +4092,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>152</v>
+      </c>
+      <c r="F83" t="s">
         <v>153</v>
-      </c>
-      <c r="F83" t="s">
-        <v>154</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4145,10 +4121,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84" t="s">
         <v>155</v>
-      </c>
-      <c r="F84" t="s">
-        <v>156</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4174,10 +4150,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>156</v>
+      </c>
+      <c r="F85" t="s">
         <v>157</v>
-      </c>
-      <c r="F85" t="s">
-        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4203,10 +4179,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>158</v>
+      </c>
+      <c r="F86" t="s">
         <v>159</v>
-      </c>
-      <c r="F86" t="s">
-        <v>160</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4232,10 +4208,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>160</v>
+      </c>
+      <c r="F87" t="s">
         <v>161</v>
-      </c>
-      <c r="F87" t="s">
-        <v>162</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4261,10 +4237,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>162</v>
+      </c>
+      <c r="F88" t="s">
         <v>163</v>
-      </c>
-      <c r="F88" t="s">
-        <v>164</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4290,10 +4266,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>164</v>
+      </c>
+      <c r="F89" t="s">
         <v>165</v>
-      </c>
-      <c r="F89" t="s">
-        <v>166</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4319,10 +4295,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4348,10 +4324,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4377,10 +4353,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4406,10 +4382,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4435,10 +4411,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F94" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4464,10 +4440,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4493,10 +4469,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4522,10 +4498,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4551,13 +4527,13 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -4580,10 +4556,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4609,13 +4585,13 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -4638,13 +4614,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -4667,13 +4643,13 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -4696,10 +4672,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4725,10 +4701,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F104" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4754,13 +4730,13 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F105" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G105" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -4783,13 +4759,13 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F106" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -4812,10 +4788,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4841,10 +4817,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4870,10 +4846,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4899,10 +4875,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4928,10 +4904,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F111" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4957,10 +4933,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4986,10 +4962,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F113" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5015,10 +4991,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5044,13 +5020,13 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -5073,13 +5049,13 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -5102,10 +5078,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5131,10 +5107,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5160,10 +5136,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5189,13 +5165,13 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G120" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -5218,13 +5194,13 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -5247,10 +5223,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5276,10 +5252,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5305,10 +5281,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5334,10 +5310,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5363,13 +5339,13 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -5392,13 +5368,13 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -5421,10 +5397,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5450,10 +5426,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5479,10 +5455,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5508,10 +5484,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5537,10 +5513,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5566,10 +5542,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5595,10 +5571,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5624,10 +5600,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>34</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5653,13 +5629,13 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -5682,13 +5658,13 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -5711,10 +5687,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5740,13 +5716,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G139" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -5769,13 +5745,13 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -5798,13 +5774,13 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -5827,10 +5803,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5856,10 +5832,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5885,10 +5861,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="F144" t="s">
-        <v>24</v>
+        <v>271</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5914,10 +5890,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>24</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5943,10 +5919,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5972,10 +5948,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6001,10 +5977,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6030,10 +6006,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6059,10 +6035,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6088,10 +6064,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6117,13 +6093,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -6146,13 +6122,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6175,10 +6151,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6204,10 +6180,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6233,10 +6209,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6262,13 +6238,13 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G157" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -6291,13 +6267,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6320,10 +6296,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6349,10 +6325,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6378,13 +6354,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6407,13 +6383,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -6436,10 +6412,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6465,13 +6441,13 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -6494,13 +6470,13 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -6523,10 +6499,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6552,10 +6528,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6581,10 +6557,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6610,10 +6586,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6639,13 +6615,13 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -6668,13 +6644,13 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -6697,10 +6673,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6726,10 +6702,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6755,10 +6731,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6784,10 +6760,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6813,10 +6789,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6842,10 +6818,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6871,10 +6847,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6900,10 +6876,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6929,10 +6905,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6958,10 +6934,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6987,10 +6963,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7016,10 +6992,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7045,13 +7021,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G184" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -7074,13 +7050,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -7103,13 +7079,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -7132,13 +7108,13 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -7161,13 +7137,13 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G188" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -7190,13 +7166,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -7219,10 +7195,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7248,10 +7224,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7277,10 +7253,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7306,10 +7282,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7335,13 +7311,13 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G194" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -7364,13 +7340,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G195" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -7393,13 +7369,13 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -7422,13 +7398,13 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -7451,13 +7427,13 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -7480,10 +7456,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7509,10 +7485,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
-        <v>386</v>
+        <v>326</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7538,10 +7514,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7567,10 +7543,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7596,10 +7572,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7625,13 +7601,13 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -7654,13 +7630,13 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F205" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -7683,10 +7659,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F206" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7712,10 +7688,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7741,10 +7717,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7770,10 +7746,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7799,10 +7775,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F210" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7828,10 +7804,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F211" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7857,13 +7833,13 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G212" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -7886,13 +7862,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F213" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -7915,10 +7891,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7944,10 +7920,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F215" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7973,10 +7949,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8002,10 +7978,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F217" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8031,10 +8007,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8060,10 +8036,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8089,13 +8065,13 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -8118,13 +8094,13 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F221" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -8147,10 +8123,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8176,10 +8152,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8205,13 +8181,13 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -8234,13 +8210,13 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F225" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -8263,10 +8239,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8292,10 +8268,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8321,13 +8297,13 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -8350,13 +8326,13 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -8379,10 +8355,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8408,10 +8384,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8437,47 +8413,18 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G232" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
       </c>
       <c r="I232" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="s">
-        <v>0</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1</v>
-      </c>
-      <c r="D233" t="n">
-        <v>232</v>
-      </c>
-      <c r="E233" t="s">
-        <v>449</v>
-      </c>
-      <c r="F233" t="s">
-        <v>451</v>
-      </c>
-      <c r="G233" t="n">
-        <v>1</v>
-      </c>
-      <c r="H233" t="s">
-        <v>4</v>
-      </c>
-      <c r="I233" t="n">
         <v>3</v>
       </c>
     </row>
